--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Libertador.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Libertador.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Racbcbf2f46f14fb0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rab9f4cd9f622435b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72830</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2035107.551476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15232235.572093</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36687.846802</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73258</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2037135.5584236</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15479601.264501</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37637.125308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73593</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2055258.6573179</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16367274.062645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38218.774097</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74111</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2049854.2231652</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18976125.570765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37987.832042</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2151328.2319506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22184355.332563</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40582.17409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75106</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2213352.668868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21401166.160092</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42397.209804</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75534</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2127448.7834485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23665666.946511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39255.145325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2063599.4996783</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23947069.243055</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40787.745782</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2055550.7911203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24663546.204597</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38814.116029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2004219.5239447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24343489.390804</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40992.440378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1961428.0208368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19363770.338747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41525.017504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78036</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2006512.6367061</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>19902011.830626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44004.0946</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2066366.5069878</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21434833.68287</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45696.934407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>78709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2077986.0590148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22270429.777011</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47491.431377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79122</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2325939.466697</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22215319.881944</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53575.342128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2290315.7455875</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24971169.6</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54671.498552</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81021</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2373253.2674368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28369687.549199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56637.468502</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81750</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2382330.5608562</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27667163.107551</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50878.016932</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82276</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2227851.7142909</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28896379.418764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50243.165478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2142590.2203486</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30060636.086363</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51655.31491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83300</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2118213.4656662</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35234733.08764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51062.476178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83783</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2084084.1625747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33248142.90604</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50743.260463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2052739.9396124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32537921.525612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51746.364431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2164745.1919462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31783869.973333</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57648.614233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85190</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2237067.0208709</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30283797.642384</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57803.723387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>85500</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2274502.0048304</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30304817.544052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59458.188624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86043</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2300788.6260823</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29365770.877461</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57871.373556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2309982.4237061</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30833669.346405</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59642.092119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87233</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2490104.1895269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36344807.095238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>68065.064625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87897</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2519122.0209677</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38265769.982684</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60777.454365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2404285.5670763</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40206759.698072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>62186.168649</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2308424.5011208</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38745205.659574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59285.542574</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>89884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2281978.9997552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40929217.255274</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63778.907537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2208124.3669634</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39647584.556962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63541.758738</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91044</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2176922.7583036</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44019793.445833</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60549.11593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91637</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2236101.7572268</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40186823.276859</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72910.499425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92119</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2346099.3348929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35782052.557344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71235.983512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2384103.5426611</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36377339.716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>67983.728012</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93228</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2369017.4879649</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36178472.982142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>70432.823699</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>93673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2400362.1193406</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36186656.151873</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73945.391502</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2469500.3863609</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42508141.088757</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75656.364534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94742</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2462054.2996348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41742472.685039</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74384.712713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95340</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2400395.1129116</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40743878.91279</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74269.472107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2325467.9502678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42077828.688212</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>72807.519123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96397</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2282196.7387989</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40034927.616541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76298.814954</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2239532.955277</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39396685.435514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76297.706766</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97349</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2204639.2822422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39012473.918215</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>74559.818523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2278279.3320796</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42302305.429629</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84132.657124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98260</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2332259.9429167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42500024.546125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82313.398746</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>98632</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2316921.243572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42434045.77022</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>82446.499466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99326</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2315579.2823832</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42984125.287545</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84890.77932</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99885</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2377784.5486109</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43312495.460694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88300.106716</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2405581.6982392</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43253896.48741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90323.725053</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101353</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2438762.6751156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42148648.292114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92104.965133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2356684.1446355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42581297.758064</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>87050.721152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>102688</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2298137.2656006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41591414.804232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92826.272683</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103197</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2304919.284892</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37821538.367697</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>95325.415447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2256955.1954969</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33987238.900514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92596.845558</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2201905.9584255</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33011341.367174</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>96456.714932</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>104854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2286014.5149922</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30129930.759197</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108090.359662</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105463</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2334367.4434161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25926160.879478</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106633.693027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>105942</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2349773.3823884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25711887.077294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108702.083147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>106605</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2360159.4709347</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25395835.890649</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113018.584449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107236</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2392039.430182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27507152.483464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108877.95149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>107679</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2476369.6415735</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30790562.226708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>118081.443463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108146</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2489836.4227988</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31408689.92093</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120177.222447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108690</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2404165.7602539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33730199.25966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114693.59014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109394</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2450533.7091156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36206753.537519</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130224.878523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>109749</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2470222.0431712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34378435.387195</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126464.579347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110483</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2367158.764199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34297447.012121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>126309.028455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110983</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2310071.620149</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30134584.622754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124467.637069</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>111597</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2374532.4478973</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31466901.599702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135316.604189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2400805.0704685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31384101.886262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>131514.386885</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>112927</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2425143.4473598</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32560059.187683</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134158.49137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2416031.8789637</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33081008.547965</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138536.382368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>114495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2465479.0021747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32949453.933621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140311.891356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115300</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2550272.6313876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32303517.390558</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>147013.28626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>115964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2569580.2309682</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30065062.823863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145260.09947</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>116928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2464519.9073104</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32742087.339943</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140711.61645</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>117619</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2438729.1422049</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31150877.701977</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146761.721286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>119620</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2454261.5219779</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34262132.78453</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139530.890084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2445303.8578855</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34951128.853747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>150869.885264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120718</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2468555.5926373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33809491.443262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>150845.077285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2540157.9284818</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34769950.588541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>160649.797873</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121586</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2536519.3749609</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35681315.976351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>165018.724129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2591226.6575625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>41613392.515754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>166226.420183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2665838.9367502</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44984155.260586</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>170044.442027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122164</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2889620.9741904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49311731.588045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>195515.614318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3122496.6909447</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60886734.896166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>199107.636933</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121731</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3302464.1924078</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63025088.290015</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200885.073807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>121750</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3377477.1816098</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59878366.891808</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>223617.316953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122062</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3617862.1996772</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56488847.648401</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>403337.723293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122510</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3914918.443425</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55874325.41979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>397176.623065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123073</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3961360.3673267</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55870876.896952</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>364664.290195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123876</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3902446.0776663</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54529754.361581</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333967.697904</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122676</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4044273.2568554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52020377.923504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>495221.525829</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>467651.149331</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>435787.788191</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>421221.826973</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>442039.62409</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>584126.24279</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>552317.584449</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>543911.157942</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>524408.515717</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>533567.16226</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>507686.145074</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>486712.617768</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>494216.368039</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>456443.060769</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>433679.355647</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>414694.795539</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>408355.54702</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>392126.98729</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>374590.100545</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>358543.849798</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>345344.000717</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>340814.89768</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>328102.937607</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>312535.264573</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>332190.898117</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>318824.682528</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>315573.798566</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>316941.189926</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>317764.774221</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>306917.030964</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>307303.965087</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>288604.102831</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>291304.258116</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>293628.892745</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>281676.753292</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>284685.95719</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>302421.589558</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>302348.180854</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>306099.157016</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>310646.677569</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>306137.639834</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>314512.70754</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>312028.276579</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>298240.940383</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
